--- a/results/mp/tinybert/corona/confidence/210/stop-words-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,66 +40,48 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>forced</t>
+    <t>died</t>
+  </si>
+  <si>
+    <t>crisis</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>war</t>
+    <t>sc</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
@@ -112,91 +94,85 @@
     <t>thank</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>boost</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
+    <t>grocery</t>
+  </si>
+  <si>
     <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -554,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -562,10 +538,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -623,13 +599,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -641,19 +617,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -665,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -673,13 +649,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.92</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -691,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -723,13 +699,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9090909090909091</v>
+        <v>0.613013698630137</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>179</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>179</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -741,19 +717,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="K5">
-        <v>0.9444444444444444</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -765,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -773,13 +749,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7647058823529411</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -791,31 +767,31 @@
         <v>0</v>
       </c>
       <c r="H6">
+        <v>14</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="L6">
+        <v>42</v>
+      </c>
+      <c r="M6">
+        <v>42</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>4</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="L6">
-        <v>11</v>
-      </c>
-      <c r="M6">
-        <v>11</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -823,13 +799,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7333333333333333</v>
+        <v>0.2275132275132275</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -841,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>0.9166666666666666</v>
+        <v>0.875</v>
       </c>
       <c r="L7">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="M7">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -865,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -873,13 +849,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7012987012987013</v>
+        <v>0.2228682170542636</v>
       </c>
       <c r="C8">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D8">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -891,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>46</v>
+        <v>401</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K8">
-        <v>0.8823529411764706</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L8">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="M8">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -915,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -923,13 +899,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4583333333333333</v>
+        <v>0.1275167785234899</v>
       </c>
       <c r="C9">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -941,319 +917,175 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9">
+        <v>0.8170731707317073</v>
+      </c>
+      <c r="L9">
+        <v>67</v>
+      </c>
+      <c r="M9">
+        <v>67</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="L10">
+        <v>22</v>
+      </c>
+      <c r="M10">
+        <v>22</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="L11">
+        <v>29</v>
+      </c>
+      <c r="M11">
+        <v>29</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12">
+        <v>0.78125</v>
+      </c>
+      <c r="L12">
+        <v>100</v>
+      </c>
+      <c r="M12">
+        <v>100</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>28</v>
       </c>
-      <c r="K9">
-        <v>0.875</v>
-      </c>
-      <c r="L9">
-        <v>35</v>
-      </c>
-      <c r="M9">
-        <v>35</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.3648068669527897</v>
-      </c>
-      <c r="C10">
-        <v>85</v>
-      </c>
-      <c r="D10">
-        <v>85</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>148</v>
-      </c>
-      <c r="J10" s="1" t="s">
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13">
+        <v>0.7586206896551724</v>
+      </c>
+      <c r="L13">
+        <v>44</v>
+      </c>
+      <c r="M13">
+        <v>44</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="J14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="L14">
+        <v>91</v>
+      </c>
+      <c r="M14">
+        <v>91</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>29</v>
       </c>
-      <c r="K10">
-        <v>0.875</v>
-      </c>
-      <c r="L10">
-        <v>14</v>
-      </c>
-      <c r="M10">
-        <v>14</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>18</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11">
-        <v>0.8461538461538461</v>
-      </c>
-      <c r="L11">
-        <v>11</v>
-      </c>
-      <c r="M11">
-        <v>11</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.2325581395348837</v>
-      </c>
-      <c r="C12">
-        <v>20</v>
-      </c>
-      <c r="D12">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>66</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L12">
-        <v>45</v>
-      </c>
-      <c r="M12">
-        <v>45</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.2173913043478261</v>
-      </c>
-      <c r="C13">
-        <v>10</v>
-      </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>36</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13">
-        <v>0.8035714285714286</v>
-      </c>
-      <c r="L13">
-        <v>45</v>
-      </c>
-      <c r="M13">
-        <v>45</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.175</v>
-      </c>
-      <c r="C14">
-        <v>14</v>
-      </c>
-      <c r="D14">
-        <v>14</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>66</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K14">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L14">
-        <v>21</v>
-      </c>
-      <c r="M14">
-        <v>21</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>6</v>
-      </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.1181818181818182</v>
-      </c>
-      <c r="C15">
-        <v>13</v>
-      </c>
-      <c r="D15">
-        <v>13</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>97</v>
-      </c>
       <c r="J15" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K15">
-        <v>0.7647058823529411</v>
+        <v>0.7452830188679245</v>
       </c>
       <c r="L15">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="M15">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1265,21 +1097,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K16">
-        <v>0.7241379310344828</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L16">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M16">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1291,21 +1123,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K17">
-        <v>0.7241379310344828</v>
+        <v>0.7112676056338029</v>
       </c>
       <c r="L17">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="M17">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1317,21 +1149,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K18">
         <v>0.7058823529411765</v>
       </c>
       <c r="L18">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="M18">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1343,21 +1175,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K19">
-        <v>0.6923076923076923</v>
+        <v>0.6625</v>
       </c>
       <c r="L19">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="M19">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1369,47 +1201,47 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K20">
-        <v>0.6923076923076923</v>
+        <v>0.64</v>
       </c>
       <c r="L20">
+        <v>32</v>
+      </c>
+      <c r="M20">
+        <v>32</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>18</v>
-      </c>
-      <c r="M20">
-        <v>18</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>8</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K21">
-        <v>0.6712328767123288</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="L21">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="M21">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1421,21 +1253,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="K22">
-        <v>0.64</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L22">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M22">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1447,21 +1279,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="K23">
-        <v>0.6363636363636364</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L23">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M23">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1473,21 +1305,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="K24">
-        <v>0.631578947368421</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L24">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="M24">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1499,21 +1331,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K25">
-        <v>0.6</v>
+        <v>0.5587467362924282</v>
       </c>
       <c r="L25">
-        <v>15</v>
+        <v>214</v>
       </c>
       <c r="M25">
-        <v>15</v>
+        <v>214</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1525,21 +1357,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K26">
-        <v>0.5882352941176471</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="L26">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="M26">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1551,21 +1383,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K27">
-        <v>0.5868544600938967</v>
+        <v>0.4911764705882353</v>
       </c>
       <c r="L27">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="M27">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1577,47 +1409,47 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>88</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K28">
+        <v>0.4719101123595505</v>
+      </c>
+      <c r="L28">
+        <v>42</v>
+      </c>
+      <c r="M28">
+        <v>42</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>47</v>
-      </c>
-      <c r="K28">
-        <v>0.5757575757575758</v>
-      </c>
-      <c r="L28">
-        <v>19</v>
-      </c>
-      <c r="M28">
-        <v>19</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>14</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>0.5416666666666666</v>
+        <v>0.4305084745762712</v>
       </c>
       <c r="L29">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="M29">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1629,21 +1461,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>0.5357142857142857</v>
+        <v>0.3891213389121339</v>
       </c>
       <c r="L30">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="M30">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1655,21 +1487,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>13</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>0.5208333333333334</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L31">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="M31">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1681,21 +1513,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>0.5142857142857142</v>
+        <v>0.3835616438356164</v>
       </c>
       <c r="L32">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M32">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1707,21 +1539,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="K33">
-        <v>0.4666666666666667</v>
+        <v>0.359375</v>
       </c>
       <c r="L33">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M33">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1733,21 +1565,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="K34">
-        <v>0.4573643410852713</v>
+        <v>0.2923076923076923</v>
       </c>
       <c r="L34">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="M34">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1759,21 +1591,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>70</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="K35">
-        <v>0.4239130434782609</v>
+        <v>0.04250559284116331</v>
       </c>
       <c r="L35">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M35">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1785,163 +1617,111 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>53</v>
+        <v>856</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="K36">
-        <v>0.4166666666666667</v>
+        <v>0.03888888888888889</v>
       </c>
       <c r="L36">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="M36">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>14</v>
+        <v>865</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K37">
-        <v>0.40625</v>
+        <v>0.01495327102803738</v>
       </c>
       <c r="L37">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M37">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>19</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K38">
-        <v>0.4</v>
+        <v>0.009668063164679342</v>
       </c>
       <c r="L38">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="M38">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>15</v>
+        <v>3073</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K39">
-        <v>0.2702702702702703</v>
+        <v>0.007194244604316547</v>
       </c>
       <c r="L39">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="M39">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="10:17">
-      <c r="J40" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K40">
-        <v>0.04146341463414634</v>
-      </c>
-      <c r="L40">
-        <v>17</v>
-      </c>
-      <c r="M40">
-        <v>17</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="41" spans="10:17">
-      <c r="J41" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K41">
-        <v>0.008912655971479501</v>
-      </c>
-      <c r="L41">
-        <v>10</v>
-      </c>
-      <c r="M41">
-        <v>11</v>
-      </c>
-      <c r="N41">
-        <v>0.91</v>
-      </c>
-      <c r="O41">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="P41" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q41">
-        <v>1112</v>
+        <v>3174</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/210/stop-words-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,15 +43,12 @@
     <t>crude</t>
   </si>
   <si>
-    <t>died</t>
+    <t>fraud</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -64,100 +61,109 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>strong</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>healthy</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>better</t>
+    <t>care</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>hope</t>
+    <t>online</t>
+  </si>
+  <si>
+    <t>shopping</t>
   </si>
   <si>
     <t>store</t>
@@ -530,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -538,10 +544,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -599,13 +605,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8235294117647058</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -617,19 +623,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -641,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -649,13 +655,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7307692307692307</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -667,19 +673,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>0.9615384615384616</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -691,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -699,13 +705,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.613013698630137</v>
+        <v>0.5856164383561644</v>
       </c>
       <c r="C5">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D5">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -717,10 +723,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5">
         <v>0.9322033898305084</v>
@@ -749,13 +755,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6111111111111112</v>
+        <v>0.2116402116402116</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -767,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6">
-        <v>0.9130434782608695</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L6">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="M6">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -791,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -799,13 +805,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2275132275132275</v>
+        <v>0.2054263565891473</v>
       </c>
       <c r="C7">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="D7">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -817,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>146</v>
+        <v>410</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L7">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="M7">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -841,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -849,13 +855,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2228682170542636</v>
+        <v>0.1409395973154362</v>
       </c>
       <c r="C8">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -867,69 +873,45 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>401</v>
+        <v>128</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="L8">
+        <v>96</v>
+      </c>
+      <c r="M8">
+        <v>96</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K8">
-        <v>0.8636363636363636</v>
-      </c>
-      <c r="L8">
-        <v>19</v>
-      </c>
-      <c r="M8">
-        <v>19</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.1275167785234899</v>
-      </c>
-      <c r="C9">
-        <v>19</v>
-      </c>
-      <c r="D9">
-        <v>19</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>130</v>
-      </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="L9">
         <v>22</v>
       </c>
-      <c r="K9">
-        <v>0.8170731707317073</v>
-      </c>
-      <c r="L9">
-        <v>67</v>
-      </c>
       <c r="M9">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -941,21 +923,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K10">
-        <v>0.8148148148148148</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L10">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="M10">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -967,21 +949,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K11">
-        <v>0.8055555555555556</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L11">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M11">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -993,12 +975,12 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K12">
         <v>0.78125</v>
@@ -1024,16 +1006,16 @@
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>0.7586206896551724</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L13">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M13">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1045,21 +1027,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.7583333333333333</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L14">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="M14">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1071,21 +1053,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.7452830188679245</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L15">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="M15">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1097,21 +1079,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.7407407407407407</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L16">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M16">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1123,21 +1105,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.7112676056338029</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L17">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="M17">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1149,47 +1131,47 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18">
+        <v>0.7075471698113207</v>
+      </c>
+      <c r="L18">
+        <v>75</v>
+      </c>
+      <c r="M18">
+        <v>75</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>31</v>
-      </c>
-      <c r="K18">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="L18">
-        <v>36</v>
-      </c>
-      <c r="M18">
-        <v>36</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>15</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.6625</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L19">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="M19">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1201,21 +1183,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>54</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K20">
-        <v>0.64</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="L20">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="M20">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1227,21 +1209,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.6388888888888888</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L21">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M21">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1253,21 +1235,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.6170212765957447</v>
+        <v>0.66875</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="M22">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1279,21 +1261,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.5833333333333334</v>
+        <v>0.625</v>
       </c>
       <c r="L23">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1305,21 +1287,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.574468085106383</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="L24">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="M24">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1331,47 +1313,47 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25">
+        <v>0.5957446808510638</v>
+      </c>
+      <c r="L25">
+        <v>56</v>
+      </c>
+      <c r="M25">
+        <v>56</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>38</v>
-      </c>
-      <c r="K25">
-        <v>0.5587467362924282</v>
-      </c>
-      <c r="L25">
-        <v>214</v>
-      </c>
-      <c r="M25">
-        <v>214</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>169</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.5396825396825397</v>
+        <v>0.58</v>
       </c>
       <c r="L26">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M26">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1383,21 +1365,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.4911764705882353</v>
+        <v>0.5326370757180157</v>
       </c>
       <c r="L27">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="M27">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1409,21 +1391,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.4719101123595505</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L28">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M28">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1435,21 +1417,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.4305084745762712</v>
+        <v>0.45</v>
       </c>
       <c r="L29">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="M29">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1461,21 +1443,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.3891213389121339</v>
+        <v>0.4474576271186441</v>
       </c>
       <c r="L30">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="M30">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1487,21 +1469,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>146</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.3846153846153846</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L31">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M31">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1513,21 +1495,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K32">
-        <v>0.3835616438356164</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L32">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M32">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1539,21 +1521,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K33">
-        <v>0.359375</v>
+        <v>0.3835616438356164</v>
       </c>
       <c r="L33">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M33">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1565,21 +1547,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>0.2923076923076923</v>
+        <v>0.3723849372384937</v>
       </c>
       <c r="L34">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="M34">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1591,21 +1573,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>46</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K35">
-        <v>0.04250559284116331</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L35">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="M35">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1617,110 +1599,188 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>856</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K36">
-        <v>0.03888888888888889</v>
+        <v>0.05502392344497608</v>
       </c>
       <c r="L36">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="M36">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N36">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>865</v>
+        <v>395</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K37">
-        <v>0.01495327102803738</v>
+        <v>0.05288461538461538</v>
       </c>
       <c r="L37">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="M37">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="N37">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>2108</v>
+        <v>394</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K38">
-        <v>0.009668063164679342</v>
+        <v>0.04809843400447427</v>
       </c>
       <c r="L38">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M38">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="N38">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>3073</v>
+        <v>851</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K39">
+        <v>0.03329633740288569</v>
+      </c>
+      <c r="L39">
+        <v>30</v>
+      </c>
+      <c r="M39">
+        <v>30</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K39">
-        <v>0.007194244604316547</v>
-      </c>
-      <c r="L39">
-        <v>23</v>
-      </c>
-      <c r="M39">
+      <c r="K40">
+        <v>0.01214385801027557</v>
+      </c>
+      <c r="L40">
+        <v>26</v>
+      </c>
+      <c r="M40">
+        <v>28</v>
+      </c>
+      <c r="N40">
+        <v>0.93</v>
+      </c>
+      <c r="O40">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K41">
+        <v>0.01030927835051546</v>
+      </c>
+      <c r="L41">
+        <v>32</v>
+      </c>
+      <c r="M41">
+        <v>35</v>
+      </c>
+      <c r="N41">
+        <v>0.91</v>
+      </c>
+      <c r="O41">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K42">
+        <v>0.006261740763932373</v>
+      </c>
+      <c r="L42">
+        <v>20</v>
+      </c>
+      <c r="M42">
         <v>27</v>
       </c>
-      <c r="N39">
-        <v>0.85</v>
-      </c>
-      <c r="O39">
-        <v>0.15</v>
-      </c>
-      <c r="P39" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q39">
+      <c r="N42">
+        <v>0.74</v>
+      </c>
+      <c r="O42">
+        <v>0.26</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
         <v>3174</v>
       </c>
     </row>
